--- a/excel/2309fd_P2_page_2.xlsx
+++ b/excel/2309fd_P2_page_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REFCOMP</t>
+          <t>CH3</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>CH4</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>CH5</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AD0</t>
+          <t>CH6</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AD1</t>
+          <t>CH7</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SDA</t>
+          <t>VREF</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>REFCOMP</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VDD</t>
+          <t>GND</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CH0</t>
+          <t>GND</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CH1</t>
+          <t>VDD</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CH2</t>
+          <t>VDD</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CH3</t>
+          <t>AD0</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CH4</t>
+          <t>AD1</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CH5</t>
+          <t>SCL</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CH6</t>
+          <t>SDA</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CH7</t>
+          <t>GND</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>GND</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>VREF</t>
+          <t>GND</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CH0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CH1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CH2</t>
         </is>
       </c>
     </row>
